--- a/Code/Results/Cases/Case_1_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.48182052022271</v>
+        <v>16.04841621693257</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6.812634072696539</v>
+        <v>10.85818944006654</v>
       </c>
       <c r="E2">
-        <v>10.31167308363015</v>
+        <v>17.09177894305614</v>
       </c>
       <c r="F2">
-        <v>21.14082119832064</v>
+        <v>32.76323992991206</v>
       </c>
       <c r="G2">
-        <v>22.55713243442592</v>
+        <v>32.62068871839873</v>
       </c>
       <c r="H2">
-        <v>9.204541385555295</v>
+        <v>15.38480504189943</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.312304941768187</v>
+        <v>12.045331198532</v>
       </c>
       <c r="K2">
-        <v>13.72395996320438</v>
+        <v>9.519875163771692</v>
       </c>
       <c r="L2">
-        <v>6.810483579858325</v>
+        <v>8.204982860043238</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.94728301246809</v>
+        <v>23.90747917842256</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.81129626375024</v>
+        <v>15.92220147595098</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.737134129323969</v>
+        <v>10.86907928926056</v>
       </c>
       <c r="E3">
-        <v>10.42118632003685</v>
+        <v>17.14693553318524</v>
       </c>
       <c r="F3">
-        <v>21.14354043203339</v>
+        <v>32.87121104216952</v>
       </c>
       <c r="G3">
-        <v>22.48624147368837</v>
+        <v>32.74230945362521</v>
       </c>
       <c r="H3">
-        <v>9.291665504373263</v>
+        <v>15.43622466408308</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.399062339626082</v>
+        <v>12.07730703476487</v>
       </c>
       <c r="K3">
-        <v>13.06988611100169</v>
+        <v>9.199464448298347</v>
       </c>
       <c r="L3">
-        <v>6.472154870979733</v>
+        <v>8.141740518443177</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.04186421634115</v>
+        <v>23.99704355473635</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.38548056266309</v>
+        <v>15.84669702643472</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.693335614267593</v>
+        <v>10.87726777809567</v>
       </c>
       <c r="E4">
-        <v>10.49280962083611</v>
+        <v>17.18298980587958</v>
       </c>
       <c r="F4">
-        <v>21.16269919949488</v>
+        <v>32.94438661728517</v>
       </c>
       <c r="G4">
-        <v>22.46795735440307</v>
+        <v>32.82609157343225</v>
       </c>
       <c r="H4">
-        <v>9.350215454503653</v>
+        <v>15.47003743215554</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.454078991200576</v>
+        <v>12.09798229762638</v>
       </c>
       <c r="K4">
-        <v>12.65060957350574</v>
+        <v>8.995565415516671</v>
       </c>
       <c r="L4">
-        <v>6.254896383041239</v>
+        <v>8.103301633498768</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.11161525926611</v>
+        <v>24.05663077746995</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.20861972408107</v>
+        <v>15.81645656211388</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.676140535357019</v>
+        <v>10.88098297323938</v>
       </c>
       <c r="E5">
-        <v>10.52308376575811</v>
+        <v>17.19823330068785</v>
       </c>
       <c r="F5">
-        <v>21.17476290623982</v>
+        <v>32.97593412914917</v>
       </c>
       <c r="G5">
-        <v>22.46662855878181</v>
+        <v>32.86251575330279</v>
       </c>
       <c r="H5">
-        <v>9.37531082056419</v>
+        <v>15.48438030294577</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.476944463067463</v>
+        <v>12.10667039176681</v>
       </c>
       <c r="K5">
-        <v>12.47543453891557</v>
+        <v>8.910757736182532</v>
       </c>
       <c r="L5">
-        <v>6.1640250086276</v>
+        <v>8.087747532067262</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.14286567593309</v>
+        <v>24.08206741904582</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.17905740630829</v>
+        <v>15.81146784014791</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.673325011427236</v>
+        <v>10.88162274467964</v>
       </c>
       <c r="E6">
-        <v>10.52817600936779</v>
+        <v>17.20079778279391</v>
       </c>
       <c r="F6">
-        <v>21.17701895995607</v>
+        <v>32.98127685659804</v>
       </c>
       <c r="G6">
-        <v>22.46677085940721</v>
+        <v>32.86870157578161</v>
       </c>
       <c r="H6">
-        <v>9.379551528488943</v>
+        <v>15.48679599532353</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.480768361899978</v>
+        <v>12.10812893496122</v>
       </c>
       <c r="K6">
-        <v>12.4460903520816</v>
+        <v>8.896574421335227</v>
       </c>
       <c r="L6">
-        <v>6.148796677389331</v>
+        <v>8.085171762995532</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.14822232470494</v>
+        <v>24.08636084777083</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.38310856405843</v>
+        <v>15.84628701879417</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.69310105894541</v>
+        <v>10.87731634994981</v>
       </c>
       <c r="E7">
-        <v>10.49321352573941</v>
+        <v>17.18319315242107</v>
       </c>
       <c r="F7">
-        <v>21.16284484993025</v>
+        <v>32.94480508521718</v>
       </c>
       <c r="G7">
-        <v>22.46791495192528</v>
+        <v>32.82657357209498</v>
       </c>
       <c r="H7">
-        <v>9.350548941036834</v>
+        <v>15.47022858141285</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.454385549848775</v>
+        <v>12.09809840341826</v>
       </c>
       <c r="K7">
-        <v>12.64826439294505</v>
+        <v>8.994428503874568</v>
       </c>
       <c r="L7">
-        <v>6.253680236235565</v>
+        <v>8.10309140486291</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.11202541297251</v>
+        <v>24.05696915215907</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.2536682556813</v>
+        <v>16.00450060415811</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.786076902558897</v>
+        <v>10.8616328877281</v>
       </c>
       <c r="E8">
-        <v>10.34851462096092</v>
+        <v>17.11034338971604</v>
       </c>
       <c r="F8">
-        <v>21.13804479276315</v>
+        <v>32.79903885036904</v>
       </c>
       <c r="G8">
-        <v>22.5273182277562</v>
+        <v>32.66072901791976</v>
       </c>
       <c r="H8">
-        <v>9.233510580329241</v>
+        <v>15.40206966571614</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.341860155882697</v>
+        <v>12.05614065529813</v>
       </c>
       <c r="K8">
-        <v>13.50217251127417</v>
+        <v>9.410932843239046</v>
       </c>
       <c r="L8">
-        <v>6.69583560129564</v>
+        <v>8.183102424264153</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.97740365620707</v>
+        <v>23.937406876108</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.84131297511479</v>
+        <v>16.32932431563617</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.988214331121638</v>
+        <v>10.84276738228106</v>
       </c>
       <c r="E9">
-        <v>10.10024393922616</v>
+        <v>16.98480361428426</v>
       </c>
       <c r="F9">
-        <v>21.23432264116381</v>
+        <v>32.56789042343986</v>
       </c>
       <c r="G9">
-        <v>22.85346589333627</v>
+        <v>32.4080902432935</v>
       </c>
       <c r="H9">
-        <v>9.04580856194201</v>
+        <v>15.2861728907503</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.13476129473942</v>
+        <v>11.98209508902296</v>
       </c>
       <c r="K9">
-        <v>15.03199941547386</v>
+        <v>10.16756030347846</v>
       </c>
       <c r="L9">
-        <v>7.485353919497681</v>
+        <v>8.342606206243346</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.81115097441499</v>
+        <v>23.73943995417766</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.92687953048075</v>
+        <v>16.57515216504853</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.148076164294208</v>
+        <v>10.83611404811386</v>
       </c>
       <c r="E10">
-        <v>9.940547902741351</v>
+        <v>16.90306949013515</v>
       </c>
       <c r="F10">
-        <v>21.40147652433359</v>
+        <v>32.43154424841924</v>
       </c>
       <c r="G10">
-        <v>23.23251691428676</v>
+        <v>32.2671475226329</v>
       </c>
       <c r="H10">
-        <v>8.935900433739578</v>
+        <v>15.21182719254729</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.990437907739929</v>
+        <v>11.93266520831737</v>
       </c>
       <c r="K10">
-        <v>16.06317002541572</v>
+        <v>10.68297553056076</v>
       </c>
       <c r="L10">
-        <v>8.016155506104832</v>
+        <v>8.460691409874089</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.75575408213016</v>
+        <v>23.61629574451988</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.40199220537851</v>
+        <v>16.68817362710217</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.223095745511782</v>
+        <v>10.83464206905749</v>
       </c>
       <c r="E11">
-        <v>9.873093131968465</v>
+        <v>16.86815434679009</v>
       </c>
       <c r="F11">
-        <v>21.50007382556718</v>
+        <v>32.37681197018554</v>
       </c>
       <c r="G11">
-        <v>23.43734593375592</v>
+        <v>32.21281099919575</v>
       </c>
       <c r="H11">
-        <v>8.892576771024329</v>
+        <v>15.18034621823489</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.926382694284146</v>
+        <v>11.91124757625427</v>
       </c>
       <c r="K11">
-        <v>16.5114898296516</v>
+        <v>10.90800447372229</v>
       </c>
       <c r="L11">
-        <v>8.246676125005788</v>
+        <v>8.514458666528466</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.74663600528113</v>
+        <v>23.56512836496742</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.57914284888985</v>
+        <v>16.73111195320083</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.251819004072586</v>
+        <v>10.83430722605266</v>
       </c>
       <c r="E12">
-        <v>9.848320838751363</v>
+        <v>16.85525786122652</v>
       </c>
       <c r="F12">
-        <v>21.54077764898701</v>
+        <v>32.35713677457866</v>
       </c>
       <c r="G12">
-        <v>23.51971408545759</v>
+        <v>32.19364740368631</v>
       </c>
       <c r="H12">
-        <v>8.8771845588887</v>
+        <v>15.16876123733825</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.902348108998088</v>
+        <v>11.90329012757843</v>
       </c>
       <c r="K12">
-        <v>16.67823485530051</v>
+        <v>10.99181415608177</v>
       </c>
       <c r="L12">
-        <v>8.33238102341233</v>
+        <v>8.534813623064601</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.74562930755546</v>
+        <v>23.54645124527877</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.54111419564223</v>
+        <v>16.72185871967611</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.245619174453702</v>
+        <v>10.83436945858561</v>
       </c>
       <c r="E13">
-        <v>9.853621271957378</v>
+        <v>16.85802090199704</v>
       </c>
       <c r="F13">
-        <v>21.53185970473075</v>
+        <v>32.36132741684823</v>
       </c>
       <c r="G13">
-        <v>23.50175886968558</v>
+        <v>32.1977117128955</v>
       </c>
       <c r="H13">
-        <v>8.880453578438281</v>
+        <v>15.17124132163184</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.90751465767446</v>
+        <v>11.90499711494811</v>
       </c>
       <c r="K13">
-        <v>16.64245830574763</v>
+        <v>10.97382736489567</v>
       </c>
       <c r="L13">
-        <v>8.313993753165546</v>
+        <v>8.530430266356255</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.7457351850902</v>
+        <v>23.55044259632209</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.41662224730295</v>
+        <v>16.69170357564348</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.225452601462368</v>
+        <v>10.83461006679233</v>
       </c>
       <c r="E14">
-        <v>9.871039491880031</v>
+        <v>16.86708683346079</v>
       </c>
       <c r="F14">
-        <v>21.50335438811133</v>
+        <v>32.37517221037192</v>
       </c>
       <c r="G14">
-        <v>23.44402537137238</v>
+        <v>32.21120605671852</v>
       </c>
       <c r="H14">
-        <v>8.891289812027679</v>
+        <v>15.17938637844019</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.924400958128449</v>
+        <v>11.9105898507686</v>
       </c>
       <c r="K14">
-        <v>16.52526882484696</v>
+        <v>10.91492793079404</v>
       </c>
       <c r="L14">
-        <v>8.253759013921107</v>
+        <v>8.516133464396631</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.74650338989624</v>
+        <v>23.56357777411299</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.34000550083499</v>
+        <v>16.67324990239315</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.213140552218626</v>
+        <v>10.83478639975638</v>
       </c>
       <c r="E15">
-        <v>9.881809879757355</v>
+        <v>16.87268229679663</v>
       </c>
       <c r="F15">
-        <v>21.48633610859455</v>
+        <v>32.38378944174279</v>
       </c>
       <c r="G15">
-        <v>23.40929152130423</v>
+        <v>32.2196558537111</v>
       </c>
       <c r="H15">
-        <v>8.89806096156919</v>
+        <v>15.18441923576971</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.934772935312758</v>
+        <v>11.91403546090137</v>
       </c>
       <c r="K15">
-        <v>16.45309214416722</v>
+        <v>10.87866620588101</v>
       </c>
       <c r="L15">
-        <v>8.216656318933291</v>
+        <v>8.507375164175086</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.74729648208948</v>
+        <v>23.57171449706156</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.89544653035061</v>
+        <v>16.56778721923648</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.143218376997565</v>
+        <v>10.83624144588211</v>
       </c>
       <c r="E16">
-        <v>9.945062775657235</v>
+        <v>16.90539681313492</v>
       </c>
       <c r="F16">
-        <v>21.39549758159857</v>
+        <v>32.43526805530779</v>
       </c>
       <c r="G16">
-        <v>23.21979561710464</v>
+        <v>32.27089586748291</v>
       </c>
       <c r="H16">
-        <v>8.938870559420469</v>
+        <v>15.2139316026496</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.994655542979928</v>
+        <v>11.93408633965468</v>
       </c>
       <c r="K16">
-        <v>16.03344991571818</v>
+        <v>10.66807532574894</v>
       </c>
       <c r="L16">
-        <v>8.000868855600219</v>
+        <v>8.45717750756125</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.75668496377623</v>
+        <v>23.61973738253283</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.61787248469666</v>
+        <v>16.50337210377963</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.100900943989104</v>
+        <v>10.83753157194623</v>
       </c>
       <c r="E17">
-        <v>9.98521312110325</v>
+        <v>16.9260459838985</v>
       </c>
       <c r="F17">
-        <v>21.34563862854855</v>
+        <v>32.46871780351502</v>
       </c>
       <c r="G17">
-        <v>23.11195307030348</v>
+        <v>32.30483920983328</v>
       </c>
       <c r="H17">
-        <v>8.9656525493034</v>
+        <v>15.23263547730977</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.031795274366309</v>
+        <v>11.94666003345082</v>
       </c>
       <c r="K17">
-        <v>15.77066383510951</v>
+        <v>10.53643245292414</v>
       </c>
       <c r="L17">
-        <v>7.865675158633797</v>
+        <v>8.426386557068843</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.76665803056292</v>
+        <v>23.65044133181285</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.45646059701351</v>
+        <v>16.46643646004286</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.076778281455464</v>
+        <v>10.83842001439152</v>
       </c>
       <c r="E18">
-        <v>10.00879360724246</v>
+        <v>16.93813618241684</v>
       </c>
       <c r="F18">
-        <v>21.31907739384886</v>
+        <v>32.48864348304089</v>
       </c>
       <c r="G18">
-        <v>23.05296677723928</v>
+        <v>32.32528262810803</v>
       </c>
       <c r="H18">
-        <v>8.981681619323597</v>
+        <v>15.24361364465741</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.05330800099965</v>
+        <v>11.95399267983905</v>
       </c>
       <c r="K18">
-        <v>15.61756321578206</v>
+        <v>10.45982919339709</v>
       </c>
       <c r="L18">
-        <v>7.786885741414057</v>
+        <v>8.408681851272378</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.77389991071979</v>
+        <v>23.66855801011297</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.4015097756586</v>
+        <v>16.45395127929763</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.068648535153843</v>
+        <v>10.83874599839452</v>
       </c>
       <c r="E19">
-        <v>10.01686048658908</v>
+        <v>16.94226638038518</v>
       </c>
       <c r="F19">
-        <v>21.3104438286004</v>
+        <v>32.49550777590739</v>
       </c>
       <c r="G19">
-        <v>23.03351273764925</v>
+        <v>32.33236224845196</v>
       </c>
       <c r="H19">
-        <v>8.987214508274189</v>
+        <v>15.24736848820686</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.06061800497137</v>
+        <v>11.95649268496807</v>
       </c>
       <c r="K19">
-        <v>15.56539189411238</v>
+        <v>10.4337420481279</v>
       </c>
       <c r="L19">
-        <v>7.760032702102386</v>
+        <v>8.402688663038576</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.7766064389364</v>
+        <v>23.67477038667589</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.64760331267073</v>
+        <v>16.51021761258971</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.105383338353046</v>
+        <v>10.83737909134003</v>
       </c>
       <c r="E20">
-        <v>9.980888465288801</v>
+        <v>16.92382576979103</v>
       </c>
       <c r="F20">
-        <v>21.35072625391317</v>
+        <v>32.46508597858192</v>
       </c>
       <c r="G20">
-        <v>23.12311715647695</v>
+        <v>32.30113060869941</v>
       </c>
       <c r="H20">
-        <v>8.96273651955852</v>
+        <v>15.23062163022201</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.027826122852557</v>
+        <v>11.94531113645282</v>
       </c>
       <c r="K20">
-        <v>15.79884030366692</v>
+        <v>10.55053809409445</v>
       </c>
       <c r="L20">
-        <v>7.88017343878209</v>
+        <v>8.429663835963092</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.76543959070935</v>
+        <v>23.64712558095474</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.45326406101123</v>
+        <v>16.70055734024563</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.23136758794717</v>
+        <v>10.83453336233494</v>
       </c>
       <c r="E21">
-        <v>9.865902196074511</v>
+        <v>16.86441513179484</v>
       </c>
       <c r="F21">
-        <v>21.51163475718542</v>
+        <v>32.37107712649361</v>
       </c>
       <c r="G21">
-        <v>23.46085166217003</v>
+        <v>32.20720405958373</v>
       </c>
       <c r="H21">
-        <v>8.888078995653323</v>
+        <v>15.17698485552412</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.919435090681738</v>
+        <v>11.90894298316301</v>
       </c>
       <c r="K21">
-        <v>16.5597725315108</v>
+        <v>10.9322665685015</v>
       </c>
       <c r="L21">
-        <v>8.271494611185068</v>
+        <v>8.520333032661201</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.74621029136617</v>
+        <v>23.55970067769695</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.96367643012777</v>
+        <v>16.82575394119933</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.315534308628534</v>
+        <v>10.83397026738196</v>
       </c>
       <c r="E22">
-        <v>9.795261120004806</v>
+        <v>16.82748156541849</v>
       </c>
       <c r="F22">
-        <v>21.6364765904135</v>
+        <v>32.31576221477</v>
       </c>
       <c r="G22">
-        <v>23.7096350949086</v>
+        <v>32.15405310149831</v>
       </c>
       <c r="H22">
-        <v>8.845220911811182</v>
+        <v>15.14388955495085</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.849883724137854</v>
+        <v>11.8860654584927</v>
       </c>
       <c r="K22">
-        <v>17.03944995621316</v>
+        <v>11.17354753653752</v>
       </c>
       <c r="L22">
-        <v>8.517984945703061</v>
+        <v>8.579552501721114</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.74796353502794</v>
+        <v>23.50663746449424</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.69275545325414</v>
+        <v>16.75887166137651</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.270450723827371</v>
+        <v>10.83415249757272</v>
       </c>
       <c r="E23">
-        <v>9.832542277129816</v>
+        <v>16.84702058053984</v>
       </c>
       <c r="F23">
-        <v>21.56800654593185</v>
+        <v>32.3447237091014</v>
       </c>
       <c r="G23">
-        <v>23.57424467439588</v>
+        <v>32.18166528909137</v>
       </c>
       <c r="H23">
-        <v>8.867533385794388</v>
+        <v>15.16137391568948</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.886889465414709</v>
+        <v>11.89819430263484</v>
       </c>
       <c r="K23">
-        <v>16.78506042430011</v>
+        <v>11.04553570743325</v>
       </c>
       <c r="L23">
-        <v>8.387279218477367</v>
+        <v>8.547953610600306</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.74567299449389</v>
+        <v>23.53458513353169</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.63416770238952</v>
+        <v>16.50712245202827</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.103356204444232</v>
+        <v>10.8374475707063</v>
       </c>
       <c r="E24">
-        <v>9.982842094377091</v>
+        <v>16.92482884726391</v>
       </c>
       <c r="F24">
-        <v>21.34841959647171</v>
+        <v>32.46672576201004</v>
       </c>
       <c r="G24">
-        <v>23.11806049696221</v>
+        <v>32.30280437417828</v>
       </c>
       <c r="H24">
-        <v>8.964052892885613</v>
+        <v>15.23153138942254</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.029620075409802</v>
+        <v>11.94592064921337</v>
       </c>
       <c r="K24">
-        <v>15.78610801543981</v>
+        <v>10.5441637957711</v>
       </c>
       <c r="L24">
-        <v>7.873622081652994</v>
+        <v>8.428182185243378</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.76598575966198</v>
+        <v>23.64862318490595</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.42553982571886</v>
+        <v>16.24006490865622</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.931481131843594</v>
+        <v>10.84660208078826</v>
       </c>
       <c r="E25">
-        <v>10.16350350209589</v>
+        <v>17.01691741728855</v>
       </c>
       <c r="F25">
-        <v>21.19191034332404</v>
+        <v>32.62455202281058</v>
       </c>
       <c r="G25">
-        <v>22.7415239004811</v>
+        <v>32.46862001251983</v>
       </c>
       <c r="H25">
-        <v>9.09186226823798</v>
+        <v>15.31562704023709</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.189379107364553</v>
+        <v>12.00124990693696</v>
       </c>
       <c r="K25">
-        <v>14.63417111781686</v>
+        <v>9.969734687469565</v>
       </c>
       <c r="L25">
-        <v>7.280307257900691</v>
+        <v>8.299248371107511</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.84493405935053</v>
+        <v>23.78908263253293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.04841621693257</v>
+        <v>13.48182052022271</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.85818944006654</v>
+        <v>6.81263407269659</v>
       </c>
       <c r="E2">
-        <v>17.09177894305614</v>
+        <v>10.31167308363022</v>
       </c>
       <c r="F2">
-        <v>32.76323992991206</v>
+        <v>21.14082119832058</v>
       </c>
       <c r="G2">
-        <v>32.62068871839873</v>
+        <v>22.55713243442574</v>
       </c>
       <c r="H2">
-        <v>15.38480504189943</v>
+        <v>9.204541385555288</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.045331198532</v>
+        <v>7.312304941768185</v>
       </c>
       <c r="K2">
-        <v>9.519875163771692</v>
+        <v>13.72395996320445</v>
       </c>
       <c r="L2">
-        <v>8.204982860043238</v>
+        <v>6.810483579858377</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.90747917842256</v>
+        <v>14.947283012468</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.92220147595098</v>
+        <v>12.8112962637502</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.86907928926056</v>
+        <v>6.737134129323977</v>
       </c>
       <c r="E3">
-        <v>17.14693553318524</v>
+        <v>10.42118632003678</v>
       </c>
       <c r="F3">
-        <v>32.87121104216952</v>
+        <v>21.1435404320332</v>
       </c>
       <c r="G3">
-        <v>32.74230945362521</v>
+        <v>22.48624147368834</v>
       </c>
       <c r="H3">
-        <v>15.43622466408308</v>
+        <v>9.291665504373194</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.07730703476487</v>
+        <v>7.399062339626015</v>
       </c>
       <c r="K3">
-        <v>9.199464448298347</v>
+        <v>13.06988611100174</v>
       </c>
       <c r="L3">
-        <v>8.141740518443177</v>
+        <v>6.472154870979746</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.99704355473635</v>
+        <v>15.04186421634105</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.84669702643472</v>
+        <v>12.38548056266311</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.87726777809567</v>
+        <v>6.693335614267657</v>
       </c>
       <c r="E4">
-        <v>17.18298980587958</v>
+        <v>10.49280962083617</v>
       </c>
       <c r="F4">
-        <v>32.94438661728517</v>
+        <v>21.16269919949483</v>
       </c>
       <c r="G4">
-        <v>32.82609157343225</v>
+        <v>22.46795735440294</v>
       </c>
       <c r="H4">
-        <v>15.47003743215554</v>
+        <v>9.350215454503658</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.09798229762638</v>
+        <v>7.45407899120061</v>
       </c>
       <c r="K4">
-        <v>8.995565415516671</v>
+        <v>12.65060957350577</v>
       </c>
       <c r="L4">
-        <v>8.103301633498768</v>
+        <v>6.254896383041242</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.05663077746995</v>
+        <v>15.11161525926606</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.81645656211388</v>
+        <v>12.20861972408105</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.88098297323938</v>
+        <v>6.676140535357071</v>
       </c>
       <c r="E5">
-        <v>17.19823330068785</v>
+        <v>10.52308376575805</v>
       </c>
       <c r="F5">
-        <v>32.97593412914917</v>
+        <v>21.17476290623964</v>
       </c>
       <c r="G5">
-        <v>32.86251575330279</v>
+        <v>22.46662855878168</v>
       </c>
       <c r="H5">
-        <v>15.48438030294577</v>
+        <v>9.375310820563996</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.10667039176681</v>
+        <v>7.476944463067397</v>
       </c>
       <c r="K5">
-        <v>8.910757736182532</v>
+        <v>12.47543453891558</v>
       </c>
       <c r="L5">
-        <v>8.087747532067262</v>
+        <v>6.1640250086276</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.08206741904582</v>
+        <v>15.14286567593297</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.81146784014791</v>
+        <v>12.17905740630833</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.88162274467964</v>
+        <v>6.673325011427325</v>
       </c>
       <c r="E6">
-        <v>17.20079778279391</v>
+        <v>10.52817600936771</v>
       </c>
       <c r="F6">
-        <v>32.98127685659804</v>
+        <v>21.17701895995603</v>
       </c>
       <c r="G6">
-        <v>32.86870157578161</v>
+        <v>22.46677085940705</v>
       </c>
       <c r="H6">
-        <v>15.48679599532353</v>
+        <v>9.37955152848893</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.10812893496122</v>
+        <v>7.48076836189981</v>
       </c>
       <c r="K6">
-        <v>8.896574421335227</v>
+        <v>12.44609035208154</v>
       </c>
       <c r="L6">
-        <v>8.085171762995532</v>
+        <v>6.14879667738937</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.08636084777083</v>
+        <v>15.14822232470483</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.84628701879417</v>
+        <v>12.38310856405847</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.87731634994981</v>
+        <v>6.693101058945529</v>
       </c>
       <c r="E7">
-        <v>17.18319315242107</v>
+        <v>10.49321352573961</v>
       </c>
       <c r="F7">
-        <v>32.94480508521718</v>
+        <v>21.16284484993023</v>
       </c>
       <c r="G7">
-        <v>32.82657357209498</v>
+        <v>22.46791495192516</v>
       </c>
       <c r="H7">
-        <v>15.47022858141285</v>
+        <v>9.350548941036823</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.09809840341826</v>
+        <v>7.454385549848872</v>
       </c>
       <c r="K7">
-        <v>8.994428503874568</v>
+        <v>12.64826439294511</v>
       </c>
       <c r="L7">
-        <v>8.10309140486291</v>
+        <v>6.253680236235552</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.05696915215907</v>
+        <v>15.11202541297244</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.00450060415811</v>
+        <v>13.25366825568132</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.8616328877281</v>
+        <v>6.786076902558842</v>
       </c>
       <c r="E8">
-        <v>17.11034338971604</v>
+        <v>10.34851462096098</v>
       </c>
       <c r="F8">
-        <v>32.79903885036904</v>
+        <v>21.13804479276308</v>
       </c>
       <c r="G8">
-        <v>32.66072901791976</v>
+        <v>22.52731822775615</v>
       </c>
       <c r="H8">
-        <v>15.40206966571614</v>
+        <v>9.233510580329177</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.05614065529813</v>
+        <v>7.341860155882629</v>
       </c>
       <c r="K8">
-        <v>9.410932843239046</v>
+        <v>13.5021725112742</v>
       </c>
       <c r="L8">
-        <v>8.183102424264153</v>
+        <v>6.69583560129565</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.937406876108</v>
+        <v>14.97740365620698</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.32932431563617</v>
+        <v>14.84131297511475</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.84276738228106</v>
+        <v>6.988214331121548</v>
       </c>
       <c r="E9">
-        <v>16.98480361428426</v>
+        <v>10.10024393922615</v>
       </c>
       <c r="F9">
-        <v>32.56789042343986</v>
+        <v>21.23432264116355</v>
       </c>
       <c r="G9">
-        <v>32.4080902432935</v>
+        <v>22.8534658933359</v>
       </c>
       <c r="H9">
-        <v>15.2861728907503</v>
+        <v>9.045808561941952</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.98209508902296</v>
+        <v>7.134761294739548</v>
       </c>
       <c r="K9">
-        <v>10.16756030347846</v>
+        <v>15.03199941547391</v>
       </c>
       <c r="L9">
-        <v>8.342606206243346</v>
+        <v>7.485353919497621</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.73943995417766</v>
+        <v>14.81115097441484</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.57515216504853</v>
+        <v>15.92687953048071</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.83611404811386</v>
+        <v>7.148076164294206</v>
       </c>
       <c r="E10">
-        <v>16.90306949013515</v>
+        <v>9.940547902741224</v>
       </c>
       <c r="F10">
-        <v>32.43154424841924</v>
+        <v>21.40147652433343</v>
       </c>
       <c r="G10">
-        <v>32.2671475226329</v>
+        <v>23.23251691428656</v>
       </c>
       <c r="H10">
-        <v>15.21182719254729</v>
+        <v>8.93590043373956</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.93266520831737</v>
+        <v>6.990437907739795</v>
       </c>
       <c r="K10">
-        <v>10.68297553056076</v>
+        <v>16.06317002541581</v>
       </c>
       <c r="L10">
-        <v>8.460691409874089</v>
+        <v>8.016155506104857</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.61629574451988</v>
+        <v>14.75575408213</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.68817362710217</v>
+        <v>16.40199220537851</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.83464206905749</v>
+        <v>7.223095745511767</v>
       </c>
       <c r="E11">
-        <v>16.86815434679009</v>
+        <v>9.873093131968531</v>
       </c>
       <c r="F11">
-        <v>32.37681197018554</v>
+        <v>21.50007382556704</v>
       </c>
       <c r="G11">
-        <v>32.21281099919575</v>
+        <v>23.43734593375562</v>
       </c>
       <c r="H11">
-        <v>15.18034621823489</v>
+        <v>8.892576771024334</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.91124757625427</v>
+        <v>6.926382694284213</v>
       </c>
       <c r="K11">
-        <v>10.90800447372229</v>
+        <v>16.51148982965168</v>
       </c>
       <c r="L11">
-        <v>8.514458666528466</v>
+        <v>8.246676125005873</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.56512836496742</v>
+        <v>14.74663600528097</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.73111195320083</v>
+        <v>16.57914284888984</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.83430722605266</v>
+        <v>7.251819004072575</v>
       </c>
       <c r="E12">
-        <v>16.85525786122652</v>
+        <v>9.848320838751551</v>
       </c>
       <c r="F12">
-        <v>32.35713677457866</v>
+        <v>21.54077764898697</v>
       </c>
       <c r="G12">
-        <v>32.19364740368631</v>
+        <v>23.51971408545748</v>
       </c>
       <c r="H12">
-        <v>15.16876123733825</v>
+        <v>8.877184558888805</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.90329012757843</v>
+        <v>6.902348108998189</v>
       </c>
       <c r="K12">
-        <v>10.99181415608177</v>
+        <v>16.67823485530063</v>
       </c>
       <c r="L12">
-        <v>8.534813623064601</v>
+        <v>8.332381023412339</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.54645124527877</v>
+        <v>14.74562930755541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.72185871967611</v>
+        <v>16.54111419564224</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.83436945858561</v>
+        <v>7.245619174453751</v>
       </c>
       <c r="E13">
-        <v>16.85802090199704</v>
+        <v>9.853621271957449</v>
       </c>
       <c r="F13">
-        <v>32.36132741684823</v>
+        <v>21.53185970473068</v>
       </c>
       <c r="G13">
-        <v>32.1977117128955</v>
+        <v>23.50175886968545</v>
       </c>
       <c r="H13">
-        <v>15.17124132163184</v>
+        <v>8.880453578438281</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.90499711494811</v>
+        <v>6.907514657674459</v>
       </c>
       <c r="K13">
-        <v>10.97382736489567</v>
+        <v>16.64245830574765</v>
       </c>
       <c r="L13">
-        <v>8.530430266356255</v>
+        <v>8.313993753165541</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.55044259632209</v>
+        <v>14.74573518509013</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.69170357564348</v>
+        <v>16.41662224730297</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.83461006679233</v>
+        <v>7.225452601462296</v>
       </c>
       <c r="E14">
-        <v>16.86708683346079</v>
+        <v>9.87103949187998</v>
       </c>
       <c r="F14">
-        <v>32.37517221037192</v>
+        <v>21.50335438811116</v>
       </c>
       <c r="G14">
-        <v>32.21120605671852</v>
+        <v>23.44402537137221</v>
       </c>
       <c r="H14">
-        <v>15.17938637844019</v>
+        <v>8.891289812027644</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.9105898507686</v>
+        <v>6.924400958128485</v>
       </c>
       <c r="K14">
-        <v>10.91492793079404</v>
+        <v>16.52526882484698</v>
       </c>
       <c r="L14">
-        <v>8.516133464396631</v>
+        <v>8.253759013921142</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.56357777411299</v>
+        <v>14.74650338989609</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.67324990239315</v>
+        <v>16.34000550083503</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.83478639975638</v>
+        <v>7.213140552218547</v>
       </c>
       <c r="E15">
-        <v>16.87268229679663</v>
+        <v>9.881809879757295</v>
       </c>
       <c r="F15">
-        <v>32.38378944174279</v>
+        <v>21.48633610859461</v>
       </c>
       <c r="G15">
-        <v>32.2196558537111</v>
+        <v>23.40929152130436</v>
       </c>
       <c r="H15">
-        <v>15.18441923576971</v>
+        <v>8.898060961569195</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.91403546090137</v>
+        <v>6.934772935312759</v>
       </c>
       <c r="K15">
-        <v>10.87866620588101</v>
+        <v>16.45309214416715</v>
       </c>
       <c r="L15">
-        <v>8.507375164175086</v>
+        <v>8.216656318933287</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.57171449706156</v>
+        <v>14.74729648208958</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.56778721923648</v>
+        <v>15.89544653035065</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.83624144588211</v>
+        <v>7.143218376997567</v>
       </c>
       <c r="E16">
-        <v>16.90539681313492</v>
+        <v>9.945062775657302</v>
       </c>
       <c r="F16">
-        <v>32.43526805530779</v>
+        <v>21.39549758159836</v>
       </c>
       <c r="G16">
-        <v>32.27089586748291</v>
+        <v>23.21979561710448</v>
       </c>
       <c r="H16">
-        <v>15.2139316026496</v>
+        <v>8.938870559420414</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.93408633965468</v>
+        <v>6.994655542979997</v>
       </c>
       <c r="K16">
-        <v>10.66807532574894</v>
+        <v>16.03344991571821</v>
       </c>
       <c r="L16">
-        <v>8.45717750756125</v>
+        <v>8.000868855600251</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.61973738253283</v>
+        <v>14.75668496377607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.50337210377963</v>
+        <v>15.61787248469663</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.83753157194623</v>
+        <v>7.100900943989008</v>
       </c>
       <c r="E17">
-        <v>16.9260459838985</v>
+        <v>9.98521312110312</v>
       </c>
       <c r="F17">
-        <v>32.46871780351502</v>
+        <v>21.34563862854838</v>
       </c>
       <c r="G17">
-        <v>32.30483920983328</v>
+        <v>23.11195307030328</v>
       </c>
       <c r="H17">
-        <v>15.23263547730977</v>
+        <v>8.965652549303337</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.94666003345082</v>
+        <v>7.031795274366276</v>
       </c>
       <c r="K17">
-        <v>10.53643245292414</v>
+        <v>15.77066383510959</v>
       </c>
       <c r="L17">
-        <v>8.426386557068843</v>
+        <v>7.865675158633835</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.65044133181285</v>
+        <v>14.7666580305628</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.46643646004286</v>
+        <v>15.45646059701356</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.83842001439152</v>
+        <v>7.076778281455525</v>
       </c>
       <c r="E18">
-        <v>16.93813618241684</v>
+        <v>10.00879360724265</v>
       </c>
       <c r="F18">
-        <v>32.48864348304089</v>
+        <v>21.31907739384889</v>
       </c>
       <c r="G18">
-        <v>32.32528262810803</v>
+        <v>23.05296677723921</v>
       </c>
       <c r="H18">
-        <v>15.24361364465741</v>
+        <v>8.981681619323547</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.95399267983905</v>
+        <v>7.053308000999814</v>
       </c>
       <c r="K18">
-        <v>10.45982919339709</v>
+        <v>15.61756321578209</v>
       </c>
       <c r="L18">
-        <v>8.408681851272378</v>
+        <v>7.78688574141409</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.66855801011297</v>
+        <v>14.77389991071978</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.45395127929763</v>
+        <v>15.4015097756586</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.83874599839452</v>
+        <v>7.068648535153832</v>
       </c>
       <c r="E19">
-        <v>16.94226638038518</v>
+        <v>10.01686048658914</v>
       </c>
       <c r="F19">
-        <v>32.49550777590739</v>
+        <v>21.31044382860036</v>
       </c>
       <c r="G19">
-        <v>32.33236224845196</v>
+        <v>23.03351273764917</v>
       </c>
       <c r="H19">
-        <v>15.24736848820686</v>
+        <v>8.987214508274189</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.95649268496807</v>
+        <v>7.060618004971436</v>
       </c>
       <c r="K19">
-        <v>10.4337420481279</v>
+        <v>15.56539189411243</v>
       </c>
       <c r="L19">
-        <v>8.402688663038576</v>
+        <v>7.760032702102388</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.67477038667589</v>
+        <v>14.77660643893638</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.51021761258971</v>
+        <v>15.64760331267071</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.83737909134003</v>
+        <v>7.105383338352983</v>
       </c>
       <c r="E20">
-        <v>16.92382576979103</v>
+        <v>9.980888465288741</v>
       </c>
       <c r="F20">
-        <v>32.46508597858192</v>
+        <v>21.35072625391302</v>
       </c>
       <c r="G20">
-        <v>32.30113060869941</v>
+        <v>23.12311715647676</v>
       </c>
       <c r="H20">
-        <v>15.23062163022201</v>
+        <v>8.962736519558399</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.94531113645282</v>
+        <v>7.027826122852524</v>
       </c>
       <c r="K20">
-        <v>10.55053809409445</v>
+        <v>15.79884030366693</v>
       </c>
       <c r="L20">
-        <v>8.429663835963092</v>
+        <v>7.880173438782136</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.64712558095474</v>
+        <v>14.76543959070921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.70055734024563</v>
+        <v>16.45326406101124</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.83453336233494</v>
+        <v>7.231367587947157</v>
       </c>
       <c r="E21">
-        <v>16.86441513179484</v>
+        <v>9.865902196074575</v>
       </c>
       <c r="F21">
-        <v>32.37107712649361</v>
+        <v>21.51163475718532</v>
       </c>
       <c r="G21">
-        <v>32.20720405958373</v>
+        <v>23.4608516621699</v>
       </c>
       <c r="H21">
-        <v>15.17698485552412</v>
+        <v>8.888078995653318</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.90894298316301</v>
+        <v>6.919435090681804</v>
       </c>
       <c r="K21">
-        <v>10.9322665685015</v>
+        <v>16.5597725315108</v>
       </c>
       <c r="L21">
-        <v>8.520333032661201</v>
+        <v>8.271494611185048</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.55970067769695</v>
+        <v>14.7462102913661</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.82575394119933</v>
+        <v>16.96367643012779</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.83397026738196</v>
+        <v>7.315534308628484</v>
       </c>
       <c r="E22">
-        <v>16.82748156541849</v>
+        <v>9.795261120004865</v>
       </c>
       <c r="F22">
-        <v>32.31576221477</v>
+        <v>21.63647659041352</v>
       </c>
       <c r="G22">
-        <v>32.15405310149831</v>
+        <v>23.70963509490856</v>
       </c>
       <c r="H22">
-        <v>15.14388955495085</v>
+        <v>8.845220911811229</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.8860654584927</v>
+        <v>6.849883724137919</v>
       </c>
       <c r="K22">
-        <v>11.17354753653752</v>
+        <v>17.03944995621312</v>
       </c>
       <c r="L22">
-        <v>8.579552501721114</v>
+        <v>8.517984945703068</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.50663746449424</v>
+        <v>14.74796353502795</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.75887166137651</v>
+        <v>16.69275545325415</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.83415249757272</v>
+        <v>7.270450723827383</v>
       </c>
       <c r="E23">
-        <v>16.84702058053984</v>
+        <v>9.832542277129821</v>
       </c>
       <c r="F23">
-        <v>32.3447237091014</v>
+        <v>21.56800654593174</v>
       </c>
       <c r="G23">
-        <v>32.18166528909137</v>
+        <v>23.57424467439576</v>
       </c>
       <c r="H23">
-        <v>15.16137391568948</v>
+        <v>8.867533385794287</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.89819430263484</v>
+        <v>6.886889465414743</v>
       </c>
       <c r="K23">
-        <v>11.04553570743325</v>
+        <v>16.78506042430017</v>
       </c>
       <c r="L23">
-        <v>8.547953610600306</v>
+        <v>8.387279218477389</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.53458513353169</v>
+        <v>14.74567299449378</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.50712245202827</v>
+        <v>15.63416770238949</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.8374475707063</v>
+        <v>7.103356204444145</v>
       </c>
       <c r="E24">
-        <v>16.92482884726391</v>
+        <v>9.982842094377089</v>
       </c>
       <c r="F24">
-        <v>32.46672576201004</v>
+        <v>21.34841959647146</v>
       </c>
       <c r="G24">
-        <v>32.30280437417828</v>
+        <v>23.11806049696193</v>
       </c>
       <c r="H24">
-        <v>15.23153138942254</v>
+        <v>8.964052892885563</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.94592064921337</v>
+        <v>7.029620075409834</v>
       </c>
       <c r="K24">
-        <v>10.5441637957711</v>
+        <v>15.78610801543988</v>
       </c>
       <c r="L24">
-        <v>8.428182185243378</v>
+        <v>7.873622081653021</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.64862318490595</v>
+        <v>14.76598575966179</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.24006490865622</v>
+        <v>14.42553982571879</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.84660208078826</v>
+        <v>6.931481131843621</v>
       </c>
       <c r="E25">
-        <v>17.01691741728855</v>
+        <v>10.16350350209601</v>
       </c>
       <c r="F25">
-        <v>32.62455202281058</v>
+        <v>21.19191034332393</v>
       </c>
       <c r="G25">
-        <v>32.46862001251983</v>
+        <v>22.74152390048094</v>
       </c>
       <c r="H25">
-        <v>15.31562704023709</v>
+        <v>9.091862268237968</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.00124990693696</v>
+        <v>7.18937910736465</v>
       </c>
       <c r="K25">
-        <v>9.969734687469565</v>
+        <v>14.63417111781699</v>
       </c>
       <c r="L25">
-        <v>8.299248371107511</v>
+        <v>7.280307257900688</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.78908263253293</v>
+        <v>14.84493405935045</v>
       </c>
     </row>
   </sheetData>
